--- a/biology/Médecine/Edward_Dunlop/Edward_Dunlop.xlsx
+++ b/biology/Médecine/Edward_Dunlop/Edward_Dunlop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Edward « Weary » Dunlop (12 juillet 1907 - 2 juillet 1993) était un chirurgien australien renommé pour ses capacités de leader alors qu'il était prisonnier des Japonais pendant la Seconde Guerre mondiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Wangaratta, il fait ses études de médecine à l'Université de Melbourne. Il s'engage dans l'armée en 1935 et part en Grande-Bretagne en 1938.
 Au cours de la Seconde Guerre mondiale, Dunlop est affecté à l'état-major médical au Moyen-Orient où il développe une unité chirurgicale mobile. En Grèce, il assure la liaison avec les unités médicales avancées et le siège des Alliés et, à Tobrouk, il est chirurgien jusqu'à ce que les divisions australiennes soient rappelées en Australie. Le transport de troupes qui le ramène au pays est détourné sur Java pour renforcer les défenses de l'île face aux Japonais. Le 26 février 1942, il est promu au grade de lieutenant-colonel à titre temporaire. Il est fait prisonnier de guerre des Japonais la même année quand il est capturé à Bandung. 
@@ -521,7 +535,7 @@
 Dirigeant courageux et médecin compatissant, il défie ses geôliers, donne espoir aux malades et soulage l'angoisse des mourants. 
 Après la guerre, il pardonne à ses ravisseurs et consacre son énergie à guérir et construire. Il ira jusqu'à affirmer plus tard que « dans la souffrance nous sommes tous égaux ». Il se consacre à la santé et au bien-être des anciens prisonniers de guerre et de leurs familles et travaille à promouvoir de meilleures relations entre l'Australie et l'Asie.
 Il meurt le 2 juillet 1993.
-Il est nommé Australien de l'année en 1976 et il est classé parmi les 200 principaux Australiens en 1988[1].
+Il est nommé Australien de l'année en 1976 et il est classé parmi les 200 principaux Australiens en 1988.
 </t>
         </is>
       </c>
